--- a/test_to_experiment/LC3_grain_size_dist.xlsx
+++ b/test_to_experiment/LC3_grain_size_dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\code\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\MultiGrain\test_to_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA825455-C08F-4C7D-BA58-EE392EF52A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B2DE7-F8A1-4F9E-88BA-94EE3C25CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
